--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_9.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_18</t>
+          <t>model_35_9_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9639031791393401</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7193250074788098</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9376167639675178</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9593356023180365</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9590953809613402</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2413796073058102</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H2" t="n">
-        <v>1.876874967378704</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2181037710559247</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3850791182054456</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3015914146084729</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L2" t="n">
-        <v>1.509843222128569</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4913039866577618</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007947923859228</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5122198145092404</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P2" t="n">
-        <v>268.84276890133</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q2" t="n">
-        <v>430.9532536088007</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_19</t>
+          <t>model_35_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9641111872765464</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7193233206025651</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9353971478010401</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9591718390527019</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9584639681805437</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2399886559345218</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H3" t="n">
-        <v>1.876886247527919</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2258639753510885</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3866299050707205</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3062468466412779</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L3" t="n">
-        <v>1.497954585433812</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4898863704314724</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007902123902412</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5107418474253277</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P3" t="n">
-        <v>268.8543272473935</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q3" t="n">
-        <v>430.9648119548642</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_17</t>
+          <t>model_35_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9636803795841804</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7193156877583555</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.939789191466516</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9594902264896569</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9597097451265714</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G4" t="n">
-        <v>0.24286946895706</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H4" t="n">
-        <v>1.876937288392295</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2105085474027243</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3836148756971341</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K4" t="n">
-        <v>0.297061682709449</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L4" t="n">
-        <v>1.521865484930295</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4928178861984009</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N4" t="n">
-        <v>1.007996980642015</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5137981638875285</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P4" t="n">
-        <v>268.8304622895041</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q4" t="n">
-        <v>430.9409469969747</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="5">
@@ -687,382 +687,382 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9643048648265409</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7193109707183876</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9331323934982653</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9589993462582809</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9578162349715101</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2386935332659055</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H5" t="n">
-        <v>1.876968831260281</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.23378199123749</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3882633578441253</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3110226098531712</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L5" t="n">
-        <v>1.486192924959978</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4885627219364014</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N5" t="n">
-        <v>1.007859479304248</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5093618484734914</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P5" t="n">
-        <v>268.8651496749504</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q5" t="n">
-        <v>430.975634382421</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_16</t>
+          <t>model_35_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9634423928416352</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7192950050636046</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9419118085612046</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9596354188463447</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9603062351408345</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2444608874002879</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87707559366733</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2030874704868313</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J6" t="n">
-        <v>0.382239949524102</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2926637376502029</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L6" t="n">
-        <v>1.534020335085065</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4944298609512657</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008049381392667</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5154787637428706</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P6" t="n">
-        <v>268.8173999051934</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q6" t="n">
-        <v>430.9278846126641</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_21</t>
+          <t>model_35_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9644846812760824</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.719288269021642</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9308249619860727</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9588184156337329</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9571529552652921</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2374910998398428</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87712063761095</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2418492148422489</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3899767142278147</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3159129980191219</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L7" t="n">
-        <v>1.474560644525327</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4873305857832471</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007819886691505</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5080772577334238</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P7" t="n">
-        <v>268.8752502611364</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q7" t="n">
-        <v>430.9857349686071</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_15</t>
+          <t>model_35_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9631887783776411</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7192626314941133</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9439822560178069</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.959771228822949</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9608843207920073</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2461568084888047</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H8" t="n">
-        <v>1.877292075875584</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1958487886425135</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3809538715538027</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2884014887062072</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L8" t="n">
-        <v>1.546305758918821</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4961419237363485</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00810522310951</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5172637125851729</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P8" t="n">
-        <v>268.803573026485</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q8" t="n">
-        <v>430.9140577339557</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_22</t>
+          <t>model_35_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9646509861868002</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7192554898918708</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9284765746111154</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9586293566696465</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9564747584905811</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2363790181361093</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H9" t="n">
-        <v>1.877339831802664</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2500596280069587</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3917670434427863</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3209133703358692</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L9" t="n">
-        <v>1.463048754751289</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4861882538031018</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007783269096484</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5068862943159306</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P9" t="n">
-        <v>268.8846375063173</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q9" t="n">
-        <v>430.995122213788</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_14</t>
+          <t>model_35_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9629190073066701</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7192182298365105</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9459977686354215</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9598969169945688</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9614429244191103</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2479607688825685</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H10" t="n">
-        <v>1.877588989964425</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1888021695430547</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J10" t="n">
-        <v>0.379763643908609</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2842828815155571</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L10" t="n">
-        <v>1.558729564587673</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4979565933719208</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008164622244403</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5191556364640155</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P10" t="n">
-        <v>268.7889694706403</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q10" t="n">
-        <v>430.899454178111</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_23</t>
+          <t>model_35_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9648042244310563</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7192129982548202</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9260898475306706</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9584322523099428</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9557823244058485</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2353543132911714</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H11" t="n">
-        <v>1.877623973575277</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2584040841434643</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3936335600360675</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3260187149166423</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L11" t="n">
-        <v>1.451668442820129</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M11" t="n">
-        <v>0.485133294354419</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007749528565639</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5057864230594503</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P11" t="n">
-        <v>268.8933263683363</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q11" t="n">
-        <v>431.0038110758069</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="12">
@@ -1072,602 +1072,602 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.962632709071902</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7191613599940792</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D12" t="n">
-        <v>0.947956110600277</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9600124981621398</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9619814543873612</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2498752464967452</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H12" t="n">
-        <v>1.877969278862626</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1819554300226867</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3786691264282939</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2803122782254903</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L12" t="n">
-        <v>1.571285663782775</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4998752309294242</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008227660387838</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O12" t="n">
-        <v>0.521155954394469</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P12" t="n">
-        <v>268.7735869993637</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q12" t="n">
-        <v>430.8840717068343</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_24</t>
+          <t>model_35_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9649447818682251</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.719161076384617</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9236663346425936</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9582275774928115</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9550762682833922</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2344144050616167</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H13" t="n">
-        <v>1.877971175360404</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2668771505265065</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3955717664916549</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3312244953338443</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L13" t="n">
-        <v>1.440558563247216</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4841636139381157</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007718580139106</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5047754613403097</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P13" t="n">
-        <v>268.9013295362531</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q13" t="n">
-        <v>431.0118142437237</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_12</t>
+          <t>model_35_9_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9623292771195331</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C14" t="n">
-        <v>0.719091753528081</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9498545161945007</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9601172258057105</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9624988319810759</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.251904297359412</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H14" t="n">
-        <v>1.878434737621263</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1753182395621236</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3776773884231395</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K14" t="n">
-        <v>0.27649763225048</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L14" t="n">
-        <v>1.583982504449625</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M14" t="n">
-        <v>0.501900684756867</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008294471092947</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5232676359846136</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P14" t="n">
-        <v>268.7574120719716</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q14" t="n">
-        <v>430.8678967794423</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_11</t>
+          <t>model_35_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9620083766161319</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7190089765007184</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9516906201286853</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9602112910018846</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F15" t="n">
-        <v>0.962994541745084</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2540501605032663</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H15" t="n">
-        <v>1.87898826798439</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1688988676672802</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3767866204575131</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2728427440623966</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L15" t="n">
-        <v>1.596812514709367</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5040338882488621</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008365128084521</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5254916543656029</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P15" t="n">
-        <v>268.7404470983287</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q15" t="n">
-        <v>430.8509318057993</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_10</t>
+          <t>model_35_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9616693528185156</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7189126323503859</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9534614507410301</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9602938858993527</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.963467428809197</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2563172141989873</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H16" t="n">
-        <v>1.879632521761287</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1627077038383863</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3760044726304624</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2693561285659632</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L16" t="n">
-        <v>1.609787729153315</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5062778033836635</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008439775526198</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5278310976132373</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P16" t="n">
-        <v>268.7226789672217</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q16" t="n">
-        <v>430.8331636746924</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_9</t>
+          <t>model_35_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9613116936563975</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7188023259102854</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9551635114921557</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9603650128081592</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9639166599718043</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2587088826629406</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H17" t="n">
-        <v>1.880370141434155</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1567569726484636</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3753309230665883</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2660439289904368</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L17" t="n">
-        <v>1.622901742490215</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5086343309912738</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N17" t="n">
-        <v>1.008518526167399</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5302879474797884</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P17" t="n">
-        <v>268.7041037092251</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q17" t="n">
-        <v>430.8145884166958</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_8</t>
+          <t>model_35_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9609349164071455</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C18" t="n">
-        <v>0.718677647284677</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9567943404060818</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9604241033191003</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9643412624056391</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2612283938635884</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H18" t="n">
-        <v>1.88120386797769</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1510552816382521</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3747713544231407</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2629133180306964</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L18" t="n">
-        <v>1.636160111818496</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5111050712559878</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N18" t="n">
-        <v>1.008601486295674</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5328638722727088</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P18" t="n">
-        <v>268.6847203640754</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q18" t="n">
-        <v>430.795205071546</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_7</t>
+          <t>model_35_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9605383768650884</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7185380857356998</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9583510545645827</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9604707697669983</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F19" t="n">
-        <v>0.964740312385133</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2638800556072212</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H19" t="n">
-        <v>1.882137116698322</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1456127100434024</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3743294377680146</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2599711063528095</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L19" t="n">
-        <v>1.649567788649341</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5136925691570993</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N19" t="n">
-        <v>1.008688797754476</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5355615253163295</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P19" t="n">
-        <v>268.6645212277966</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q19" t="n">
-        <v>430.7750059352672</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_6</t>
+          <t>model_35_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9601215717192364</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7183832841099913</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9598299645104499</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9605045868443247</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9651126787377641</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2666672335367447</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H20" t="n">
-        <v>1.883172275882231</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1404421569147093</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3740092006303845</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2572256341376433</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L20" t="n">
-        <v>1.663118595591409</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5163983283636234</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N20" t="n">
-        <v>1.008780571364572</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5383824742939691</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6435074284436</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q20" t="n">
-        <v>430.7539921359142</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_5</t>
+          <t>model_35_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9596839077109156</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.718212866848959</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9612282932072024</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9605255756376171</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9654576852254322</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2695938947756432</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H21" t="n">
-        <v>1.884311856891453</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1355533313049152</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3738104433273384</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2546818873161267</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L21" t="n">
-        <v>1.676819715194099</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5192243202852147</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N21" t="n">
-        <v>1.008876937751725</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5413287745422724</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P21" t="n">
-        <v>268.6216770913827</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q21" t="n">
-        <v>430.7321617988533</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_35_9_4</t>
+          <t>model_35_9_11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9592248501456725</v>
+        <v>0.9950680433414606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7180263035229448</v>
+        <v>0.7683243508614055</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9625425958398421</v>
+        <v>0.5981641085833205</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9605329381870981</v>
+        <v>0.990663603542381</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9657740252324847</v>
+        <v>0.9708408237972356</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2726636148281896</v>
+        <v>0.03298001688522558</v>
       </c>
       <c r="H22" t="n">
-        <v>1.885559406711555</v>
+        <v>1.549216132558056</v>
       </c>
       <c r="I22" t="n">
-        <v>0.130958276948674</v>
+        <v>0.1486658150257994</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3737407222882114</v>
+        <v>0.05745929040189221</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2523494996184428</v>
+        <v>0.1030625583060795</v>
       </c>
       <c r="L22" t="n">
-        <v>1.690668853641928</v>
+        <v>0.3397452672515566</v>
       </c>
       <c r="M22" t="n">
-        <v>0.522172016511982</v>
+        <v>0.1816040112035678</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008978014646824</v>
+        <v>1.002415652240917</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5444019602999856</v>
+        <v>0.1893352699326319</v>
       </c>
       <c r="P22" t="n">
-        <v>268.5990328473436</v>
+        <v>152.823706899734</v>
       </c>
       <c r="Q22" t="n">
-        <v>430.7095175548142</v>
+        <v>241.8016421151127</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9587437600119642</v>
+        <v>0.9950680737494862</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7178231224348866</v>
+        <v>0.76832426957851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9637693633716424</v>
+        <v>0.5981629547452955</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9605264304747397</v>
+        <v>0.9906638794219353</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9660607025752463</v>
+        <v>0.9708410067578833</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2758806667675133</v>
+        <v>0.03297981354661738</v>
       </c>
       <c r="H23" t="n">
-        <v>1.886918079582963</v>
+        <v>1.549216676097152</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1266692621121354</v>
+        <v>0.1486662419072056</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3738023482873487</v>
+        <v>0.05745759254731878</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2502358159472178</v>
+        <v>0.1030619116351209</v>
       </c>
       <c r="L23" t="n">
-        <v>1.704667845737197</v>
+        <v>0.339738425069797</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5252434357205364</v>
+        <v>0.1816034513620746</v>
       </c>
       <c r="N23" t="n">
-        <v>1.009083942749659</v>
+        <v>1.00241563734719</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5476041361829622</v>
+        <v>0.1893346862575273</v>
       </c>
       <c r="P23" t="n">
-        <v>268.5755737470936</v>
+        <v>152.8237192307911</v>
       </c>
       <c r="Q23" t="n">
-        <v>430.6860584545643</v>
+        <v>241.8016544461697</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9582399788884711</v>
+        <v>0.9950680737494862</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7176028770513603</v>
+        <v>0.76832426957851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9649052703326708</v>
+        <v>0.5981629547452955</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9605054897168308</v>
+        <v>0.9906638794219353</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9663165717709253</v>
+        <v>0.9708410067578833</v>
       </c>
       <c r="G24" t="n">
-        <v>0.27924945346001</v>
+        <v>0.03297981354661738</v>
       </c>
       <c r="H24" t="n">
-        <v>1.88839086147674</v>
+        <v>1.549216676097152</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1226979132766894</v>
+        <v>0.1486662419072056</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3740006507103479</v>
+        <v>0.05745759254731878</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2483492819935187</v>
+        <v>0.1030619116351209</v>
       </c>
       <c r="L24" t="n">
-        <v>1.718820802535314</v>
+        <v>0.339738425069797</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5284405864995705</v>
+        <v>0.1816034513620746</v>
       </c>
       <c r="N24" t="n">
-        <v>1.009194867033731</v>
+        <v>1.00241563734719</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5509373962896744</v>
+        <v>0.1893346862575273</v>
       </c>
       <c r="P24" t="n">
-        <v>268.5512995964114</v>
+        <v>152.8237192307911</v>
       </c>
       <c r="Q24" t="n">
-        <v>430.6617843038821</v>
+        <v>241.8016544461697</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9577128994397561</v>
+        <v>0.9950680786197923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7173650664138402</v>
+        <v>0.7683242651808616</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9659465523045394</v>
+        <v>0.5981634130233053</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9604699168241019</v>
+        <v>0.9906638849494666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9665406080776056</v>
+        <v>0.9708410300174121</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2827740361605448</v>
+        <v>0.03297978097885911</v>
       </c>
       <c r="H25" t="n">
-        <v>1.889981102304854</v>
+        <v>1.549216705504247</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1190573915718061</v>
+        <v>0.148666072359698</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3743375148702749</v>
+        <v>0.05745755852905244</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2466974532210405</v>
+        <v>0.1030618294247552</v>
       </c>
       <c r="L25" t="n">
-        <v>1.733129985175907</v>
+        <v>0.3397383093756506</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5317650196849589</v>
+        <v>0.1816033616948186</v>
       </c>
       <c r="N25" t="n">
-        <v>1.009310921224274</v>
+        <v>1.002415634961734</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5544033574782902</v>
+        <v>0.1893345927729506</v>
       </c>
       <c r="P25" t="n">
-        <v>268.5262143181471</v>
+        <v>152.8237212058037</v>
       </c>
       <c r="Q25" t="n">
-        <v>430.6366990256178</v>
+        <v>241.8016564211824</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9571618550580695</v>
+        <v>0.9950680734045851</v>
       </c>
       <c r="C26" t="n">
-        <v>0.717109180881697</v>
+        <v>0.7683241979107991</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9668893557902815</v>
+        <v>0.5981620230918471</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9604192608008255</v>
+        <v>0.9906639330991627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9667316070615195</v>
+        <v>0.9708410071034601</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2864588724782095</v>
+        <v>0.03297981585297273</v>
       </c>
       <c r="H26" t="n">
-        <v>1.891692210036541</v>
+        <v>1.549217155339466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1157611695627726</v>
+        <v>0.1486665865877635</v>
       </c>
       <c r="J26" t="n">
-        <v>0.374817211555508</v>
+        <v>0.05745726219980081</v>
       </c>
       <c r="K26" t="n">
-        <v>0.245289209968782</v>
+        <v>0.1030619104136864</v>
       </c>
       <c r="L26" t="n">
-        <v>1.747592281996701</v>
+        <v>0.3397391156280322</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5352185277792703</v>
+        <v>0.1816034577120511</v>
       </c>
       <c r="N26" t="n">
-        <v>1.009432252097306</v>
+        <v>1.002415637516122</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5580038885619237</v>
+        <v>0.1893346928778354</v>
       </c>
       <c r="P26" t="n">
-        <v>268.5003206093826</v>
+        <v>152.8237190909264</v>
       </c>
       <c r="Q26" t="n">
-        <v>430.6108053168533</v>
+        <v>241.8016543063051</v>
       </c>
     </row>
   </sheetData>
